--- a/LR3/table_1_55.xlsx
+++ b/LR3/table_1_55.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrban\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406F0CA1-0B11-4E47-8C9B-38D694651680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE84C66-CA0D-40CD-8324-7B646B45B239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30615" yWindow="2970" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -367,8 +367,8 @@
   </sheetPr>
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -379,6 +379,7 @@
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
@@ -482,7 +483,7 @@
     </row>
     <row r="4" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <f t="shared" ref="A4:A38" si="7">COUNT($A$3:A3)+1</f>
+        <f>(A3+1)</f>
         <v>2</v>
       </c>
       <c r="B4" s="5" t="str">
@@ -490,11 +491,11 @@
         <v>Куропаткин 2</v>
       </c>
       <c r="C4" s="5">
-        <f t="shared" ref="C4:C38" si="8">(C3-0.5)</f>
+        <f>($C$3-0.5*A3)</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D34" si="9">(55*1.1)</f>
+        <f>($D$3)</f>
         <v>60.500000000000007</v>
       </c>
       <c r="E4" s="5">
@@ -514,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" ref="I4:I38" si="10">($I$3)</f>
+        <f t="shared" ref="I4:I38" si="7">($I$3)</f>
         <v>10</v>
       </c>
       <c r="J4" s="5">
@@ -528,7 +529,7 @@
     </row>
     <row r="5" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="A5:A38" si="8">(A4+1)</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="str">
@@ -536,11 +537,11 @@
         <v>Куропаткин 3</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="C5:C38" si="9">($C$3-0.5*A4)</f>
         <v>69</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="D5:D34" si="10">($D$3)</f>
         <v>60.500000000000007</v>
       </c>
       <c r="E5" s="5">
@@ -560,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J5" s="5">
@@ -574,7 +575,7 @@
     </row>
     <row r="6" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="B6" s="5" t="str">
@@ -582,11 +583,11 @@
         <v>Куропаткин 4</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E6" s="5">
@@ -606,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J6" s="5">
@@ -620,7 +621,7 @@
     </row>
     <row r="7" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B7" s="5" t="str">
@@ -628,11 +629,11 @@
         <v>Куропаткин 5</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E7" s="5">
@@ -652,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J7" s="5">
@@ -666,7 +667,7 @@
     </row>
     <row r="8" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="B8" s="5" t="str">
@@ -674,11 +675,11 @@
         <v>Куропаткин 6</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E8" s="5">
@@ -698,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J8" s="5">
@@ -712,7 +713,7 @@
     </row>
     <row r="9" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="B9" s="5" t="str">
@@ -720,11 +721,11 @@
         <v>Куропаткин 7</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E9" s="5">
@@ -744,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J9" s="5">
@@ -758,7 +759,7 @@
     </row>
     <row r="10" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="B10" s="5" t="str">
@@ -766,11 +767,11 @@
         <v>Куропаткин 8</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E10" s="5">
@@ -790,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J10" s="5">
@@ -804,7 +805,7 @@
     </row>
     <row r="11" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="B11" s="5" t="str">
@@ -812,11 +813,11 @@
         <v>Куропаткин 9</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E11" s="5">
@@ -836,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J11" s="5">
@@ -850,7 +851,7 @@
     </row>
     <row r="12" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="B12" s="5" t="str">
@@ -858,11 +859,11 @@
         <v>Куропаткин 10</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E12" s="5">
@@ -882,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J12" s="5">
@@ -896,7 +897,7 @@
     </row>
     <row r="13" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="B13" s="5" t="str">
@@ -904,11 +905,11 @@
         <v>Куропаткин 11</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E13" s="5">
@@ -928,7 +929,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J13" s="5">
@@ -942,7 +943,7 @@
     </row>
     <row r="14" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="B14" s="5" t="str">
@@ -950,11 +951,11 @@
         <v>Куропаткин 12</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E14" s="5">
@@ -974,7 +975,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J14" s="5">
@@ -988,7 +989,7 @@
     </row>
     <row r="15" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="B15" s="5" t="str">
@@ -996,11 +997,11 @@
         <v>Куропаткин 13</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E15" s="5">
@@ -1020,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J15" s="5">
@@ -1034,7 +1035,7 @@
     </row>
     <row r="16" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="B16" s="5" t="str">
@@ -1042,11 +1043,11 @@
         <v>Куропаткин 14</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E16" s="5">
@@ -1066,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J16" s="5">
@@ -1080,7 +1081,7 @@
     </row>
     <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="B17" s="5" t="str">
@@ -1088,11 +1089,11 @@
         <v>Куропаткин 15</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E17" s="5">
@@ -1112,7 +1113,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J17" s="5">
@@ -1126,7 +1127,7 @@
     </row>
     <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="B18" s="5" t="str">
@@ -1134,11 +1135,11 @@
         <v>Куропаткин 16</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E18" s="5">
@@ -1158,7 +1159,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J18" s="5">
@@ -1172,7 +1173,7 @@
     </row>
     <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="B19" s="5" t="str">
@@ -1180,11 +1181,11 @@
         <v>Куропаткин 17</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E19" s="5">
@@ -1204,7 +1205,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J19" s="5">
@@ -1218,7 +1219,7 @@
     </row>
     <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="B20" s="5" t="str">
@@ -1226,11 +1227,11 @@
         <v>Куропаткин 18</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E20" s="5">
@@ -1250,7 +1251,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J20" s="5">
@@ -1264,7 +1265,7 @@
     </row>
     <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="B21" s="5" t="str">
@@ -1272,11 +1273,11 @@
         <v>Куропаткин 19</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E21" s="5">
@@ -1296,7 +1297,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J21" s="5">
@@ -1310,7 +1311,7 @@
     </row>
     <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="B22" s="5" t="str">
@@ -1318,11 +1319,11 @@
         <v>Куропаткин 20</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E22" s="5">
@@ -1342,7 +1343,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J22" s="5">
@@ -1356,7 +1357,7 @@
     </row>
     <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="B23" s="5" t="str">
@@ -1364,11 +1365,11 @@
         <v>Куропаткин 21</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E23" s="5">
@@ -1388,7 +1389,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J23" s="5">
@@ -1402,7 +1403,7 @@
     </row>
     <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="B24" s="5" t="str">
@@ -1410,11 +1411,11 @@
         <v>Куропаткин 22</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E24" s="5">
@@ -1434,7 +1435,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J24" s="5">
@@ -1448,7 +1449,7 @@
     </row>
     <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="B25" s="5" t="str">
@@ -1456,11 +1457,11 @@
         <v>Куропаткин 23</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E25" s="5">
@@ -1480,7 +1481,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J25" s="5">
@@ -1494,7 +1495,7 @@
     </row>
     <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="B26" s="5" t="str">
@@ -1502,11 +1503,11 @@
         <v>Куропаткин 24</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E26" s="5">
@@ -1526,7 +1527,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J26" s="5">
@@ -1540,7 +1541,7 @@
     </row>
     <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="B27" s="5" t="str">
@@ -1548,11 +1549,11 @@
         <v>Куропаткин 25</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E27" s="5">
@@ -1572,7 +1573,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J27" s="5">
@@ -1586,7 +1587,7 @@
     </row>
     <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="B28" s="5" t="str">
@@ -1594,11 +1595,11 @@
         <v>Куропаткин 26</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E28" s="5">
@@ -1618,7 +1619,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J28" s="5">
@@ -1632,7 +1633,7 @@
     </row>
     <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="B29" s="5" t="str">
@@ -1640,11 +1641,11 @@
         <v>Куропаткин 27</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E29" s="5">
@@ -1664,7 +1665,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J29" s="5">
@@ -1678,7 +1679,7 @@
     </row>
     <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="B30" s="5" t="str">
@@ -1686,11 +1687,11 @@
         <v>Куропаткин 28</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E30" s="5">
@@ -1710,7 +1711,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J30" s="5">
@@ -1724,7 +1725,7 @@
     </row>
     <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="B31" s="5" t="str">
@@ -1732,11 +1733,11 @@
         <v>Куропаткин 29</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E31" s="5">
@@ -1756,7 +1757,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J31" s="5">
@@ -1770,7 +1771,7 @@
     </row>
     <row r="32" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="B32" s="5" t="str">
@@ -1778,11 +1779,11 @@
         <v>Куропаткин 30</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E32" s="5">
@@ -1802,7 +1803,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J32" s="5">
@@ -1816,7 +1817,7 @@
     </row>
     <row r="33" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="B33" s="5" t="str">
@@ -1824,11 +1825,11 @@
         <v>Куропаткин 31</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E33" s="5">
@@ -1848,7 +1849,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J33" s="5">
@@ -1862,7 +1863,7 @@
     </row>
     <row r="34" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="B34" s="5" t="str">
@@ -1870,11 +1871,11 @@
         <v>Куропаткин 32</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E34" s="5">
@@ -1894,7 +1895,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J34" s="5">
@@ -1908,7 +1909,7 @@
     </row>
     <row r="35" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="B35" s="5" t="str">
@@ -1916,11 +1917,11 @@
         <v>Куропаткин 33</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="D35" s="5">
-        <f>(55*1.1)/2</f>
+        <f>($D$3/2)</f>
         <v>30.250000000000004</v>
       </c>
       <c r="E35" s="5">
@@ -1940,7 +1941,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J35" s="5">
@@ -1954,7 +1955,7 @@
     </row>
     <row r="36" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="B36" s="5" t="str">
@@ -1962,11 +1963,11 @@
         <v>Куропаткин 34</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" ref="D36:D38" si="11">(55*1.1)/2</f>
+        <f t="shared" ref="D36:D38" si="11">($D$3/2)</f>
         <v>30.250000000000004</v>
       </c>
       <c r="E36" s="5">
@@ -1986,7 +1987,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J36" s="5">
@@ -2000,7 +2001,7 @@
     </row>
     <row r="37" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="B37" s="5" t="str">
@@ -2008,7 +2009,7 @@
         <v>Куропаткин 35</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>53</v>
       </c>
       <c r="D37" s="5">
@@ -2032,7 +2033,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J37" s="5">
@@ -2046,7 +2047,7 @@
     </row>
     <row r="38" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="B38" s="5" t="str">
@@ -2054,7 +2055,7 @@
         <v>Куропаткин 36</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="5">
@@ -2078,7 +2079,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J38" s="5">

--- a/LR3/table_1_55.xlsx
+++ b/LR3/table_1_55.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE84C66-CA0D-40CD-8324-7B646B45B239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F7E20F-8D18-47E0-A0A1-398BD239CFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="2970" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -94,11 +94,6 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF282C34"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -108,6 +103,20 @@
       <sz val="11"/>
       <color rgb="FF282C34"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF282C34"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -138,15 +147,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -367,20 +377,20 @@
   </sheetPr>
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C38"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -390,55 +400,55 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-    </row>
-    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="K2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -481,7 +491,7 @@
         <v>4235.0000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f>(A3+1)</f>
         <v>2</v>
@@ -527,7 +537,7 @@
         <v>4204.7500000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" ref="A5:A38" si="8">(A4+1)</f>
         <v>3</v>
@@ -573,7 +583,7 @@
         <v>4174.5000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="8"/>
         <v>4</v>
@@ -619,7 +629,7 @@
         <v>4144.2500000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -665,7 +675,7 @@
         <v>4114.0000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="8"/>
         <v>6</v>
@@ -711,7 +721,7 @@
         <v>4083.7500000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="8"/>
         <v>7</v>
@@ -757,7 +767,7 @@
         <v>4053.5000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="8"/>
         <v>8</v>
@@ -803,7 +813,7 @@
         <v>4023.2500000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="8"/>
         <v>9</v>
@@ -849,7 +859,7 @@
         <v>3993.0000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="8"/>
         <v>10</v>
@@ -895,7 +905,7 @@
         <v>3972.7500000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="8"/>
         <v>11</v>
@@ -941,7 +951,7 @@
         <v>3952.5000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="8"/>
         <v>12</v>
@@ -987,7 +997,7 @@
         <v>3932.2500000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="8"/>
         <v>13</v>
@@ -1033,7 +1043,7 @@
         <v>3912.0000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="8"/>
         <v>14</v>
@@ -1079,7 +1089,7 @@
         <v>3891.7500000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="8"/>
         <v>15</v>
@@ -1125,7 +1135,7 @@
         <v>3871.5000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="8"/>
         <v>16</v>
@@ -1171,7 +1181,7 @@
         <v>3851.2500000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="8"/>
         <v>17</v>
@@ -1217,7 +1227,7 @@
         <v>3831.0000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="8"/>
         <v>18</v>
@@ -1259,11 +1269,11 @@
         <v>90</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(J20+E20)</f>
         <v>3810.7500000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="8"/>
         <v>19</v>
@@ -1309,7 +1319,7 @@
         <v>3790.5000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="8"/>
         <v>20</v>
@@ -1355,7 +1365,7 @@
         <v>3770.2500000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="8"/>
         <v>21</v>
@@ -1401,7 +1411,7 @@
         <v>3750.0000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="8"/>
         <v>22</v>
@@ -1447,7 +1457,7 @@
         <v>3729.7500000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="8"/>
         <v>23</v>
@@ -1493,7 +1503,7 @@
         <v>3709.5000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="8"/>
         <v>24</v>
@@ -1539,7 +1549,7 @@
         <v>3689.2500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f t="shared" si="8"/>
         <v>25</v>
@@ -1585,7 +1595,7 @@
         <v>3669.0000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f t="shared" si="8"/>
         <v>26</v>
@@ -1631,7 +1641,7 @@
         <v>3648.7500000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f t="shared" si="8"/>
         <v>27</v>
@@ -1677,7 +1687,7 @@
         <v>3628.5000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f t="shared" si="8"/>
         <v>28</v>
@@ -1723,7 +1733,7 @@
         <v>3608.2500000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f t="shared" si="8"/>
         <v>29</v>
@@ -1769,7 +1779,7 @@
         <v>3588.0000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f t="shared" si="8"/>
         <v>30</v>
@@ -1815,7 +1825,7 @@
         <v>3567.7500000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f t="shared" si="8"/>
         <v>31</v>
@@ -1861,7 +1871,7 @@
         <v>3547.5000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f t="shared" si="8"/>
         <v>32</v>
@@ -1907,7 +1917,7 @@
         <v>3527.2500000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f t="shared" si="8"/>
         <v>33</v>
@@ -1953,7 +1963,7 @@
         <v>1873.5000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f t="shared" si="8"/>
         <v>34</v>
@@ -1999,7 +2009,7 @@
         <v>1868.3750000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f t="shared" si="8"/>
         <v>35</v>
@@ -2045,7 +2055,7 @@
         <v>1863.2500000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f t="shared" si="8"/>
         <v>36</v>
@@ -2091,8 +2101,8 @@
         <v>1858.1250000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
       <c r="B40" s="5" t="s">
         <v>11</v>
       </c>
@@ -2101,7 +2111,7 @@
         <v>130739.25000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>12</v>
       </c>
@@ -2110,7 +2120,7 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>13</v>
       </c>
@@ -2119,7 +2129,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>14</v>
       </c>

--- a/LR3/table_1_55.xlsx
+++ b/LR3/table_1_55.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F7E20F-8D18-47E0-A0A1-398BD239CFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02CC4CB-926B-4FA7-A0AC-24AFC89ED006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -75,6 +75,114 @@
   </si>
   <si>
     <t>Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>Адельвахаб</t>
+  </si>
+  <si>
+    <t>Альсайед</t>
+  </si>
+  <si>
+    <t>Алтынов</t>
+  </si>
+  <si>
+    <t>Банницин</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
+  </si>
+  <si>
+    <t>Ершов</t>
+  </si>
+  <si>
+    <t>Шафигуллина</t>
+  </si>
+  <si>
+    <t>Шарафан</t>
+  </si>
+  <si>
+    <t>Шалаев</t>
+  </si>
+  <si>
+    <t>Шаабан</t>
+  </si>
+  <si>
+    <t>Хассан</t>
+  </si>
+  <si>
+    <t>Хасаншина</t>
+  </si>
+  <si>
+    <t>Ханов</t>
+  </si>
+  <si>
+    <t>Фазлиахметов</t>
+  </si>
+  <si>
+    <t>Угурлуэл</t>
+  </si>
+  <si>
+    <t>Сулу</t>
+  </si>
+  <si>
+    <t>Стрижнев</t>
+  </si>
+  <si>
+    <t>Сафиуллина</t>
+  </si>
+  <si>
+    <t>Сапожников</t>
+  </si>
+  <si>
+    <t>Санутков</t>
+  </si>
+  <si>
+    <t>Озотюрк</t>
+  </si>
+  <si>
+    <t>Низамова</t>
+  </si>
+  <si>
+    <t>Мухаметгалиев</t>
+  </si>
+  <si>
+    <t>Макаров</t>
+  </si>
+  <si>
+    <t>Калоша</t>
+  </si>
+  <si>
+    <t>Исмаел</t>
+  </si>
+  <si>
+    <t>Ирканаев</t>
+  </si>
+  <si>
+    <t>Елеиссави</t>
+  </si>
+  <si>
+    <t>Гюрбюз</t>
+  </si>
+  <si>
+    <t>Гиниатулин</t>
+  </si>
+  <si>
+    <t>Галимов</t>
+  </si>
+  <si>
+    <t>Боровик</t>
+  </si>
+  <si>
+    <t>Бикмухаметов</t>
+  </si>
+  <si>
+    <t>Афанасьев</t>
+  </si>
+  <si>
+    <t>Асадуллин</t>
+  </si>
+  <si>
+    <t>Куропаткин 1</t>
   </si>
 </sst>
 </file>
@@ -377,8 +485,8 @@
   </sheetPr>
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -452,9 +560,8 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="str">
-        <f t="shared" ref="B3:B38" si="0">CONCATENATE("Куропаткин ",A3)</f>
-        <v>Куропаткин 1</v>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="6">
         <v>70</v>
@@ -464,30 +571,30 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E38" si="1">(C3*D3)</f>
+        <f t="shared" ref="E3:E38" si="0">(C3*D3)</f>
         <v>4235.0000000000009</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" ref="F3:F38" ca="1" si="2">DATE(YEAR(TODAY()),9,9)</f>
+        <f t="shared" ref="F3:F38" ca="1" si="1">DATE(YEAR(TODAY()),9,9)</f>
         <v>44813</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G38" ca="1" si="3">DATE(YEAR(TODAY()),9,A3)</f>
+        <f t="shared" ref="G3:G38" ca="1" si="2">DATE(YEAR(TODAY()),9,A3)</f>
         <v>44805</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H38" ca="1" si="4">IF(F3&gt;=G3,0,G3-F3)</f>
+        <f t="shared" ref="H3:H38" ca="1" si="3">IF(F3&gt;=G3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="5">
         <v>10</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3:J38" ca="1" si="5">(H3*I3)</f>
+        <f t="shared" ref="J3:J38" ca="1" si="4">(H3*I3)</f>
         <v>0</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" ref="K3:K38" ca="1" si="6">(J3+E3)</f>
+        <f t="shared" ref="K3:K38" ca="1" si="5">(J3+E3)</f>
         <v>4235.0000000000009</v>
       </c>
     </row>
@@ -496,9 +603,8 @@
         <f>(A3+1)</f>
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 2</v>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="5">
         <f>($C$3-0.5*A3)</f>
@@ -509,763 +615,747 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4204.7500000000009</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44806</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" ref="I4:I38" si="7">($I$3)</f>
+        <f t="shared" ref="I4:I38" si="6">($I$3)</f>
         <v>10</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4204.7500000000009</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f t="shared" ref="A5:A38" si="8">(A4+1)</f>
+        <f t="shared" ref="A5:A38" si="7">(A4+1)</f>
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 3</v>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C38" si="9">($C$3-0.5*A4)</f>
+        <f t="shared" ref="C5:C38" si="8">($C$3-0.5*A4)</f>
         <v>69</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D34" si="10">($D$3)</f>
+        <f t="shared" ref="D5:D34" si="9">($D$3)</f>
         <v>60.500000000000007</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4174.5000000000009</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44807</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4174.5000000000009</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 4</v>
+      <c r="B6" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4144.2500000000009</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44808</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4144.2500000000009</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 5</v>
+      <c r="B7" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4114.0000000000009</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44809</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4114.0000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 6</v>
+      <c r="B8" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4083.7500000000005</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44810</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4083.7500000000005</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 7</v>
+      <c r="B9" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4053.5000000000005</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44811</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4053.5000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 8</v>
+      <c r="B10" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4023.2500000000005</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44812</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4023.2500000000005</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 9</v>
+      <c r="B11" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3993.0000000000005</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44813</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3993.0000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 10</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3962.7500000000005</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44814</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>10</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3972.7500000000005</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 11</v>
+      <c r="B13" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>65</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3932.5000000000005</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44815</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>20</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3952.5000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 12</v>
+      <c r="B14" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3902.2500000000005</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44816</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>30</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3932.2500000000005</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 13</v>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3872.0000000000005</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44817</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>40</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3912.0000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 14</v>
+      <c r="B16" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3841.7500000000005</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44818</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>50</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3891.7500000000005</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 15</v>
+      <c r="B17" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3811.5000000000005</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44819</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>60</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3871.5000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 16</v>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3781.2500000000005</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44820</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>70</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3851.2500000000005</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 17</v>
+      <c r="B19" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3751.0000000000005</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44821</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>8</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>80</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3831.0000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 18</v>
+      <c r="B20" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3720.7500000000005</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44822</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>9</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>90</v>
       </c>
       <c r="K20" s="5">
@@ -1275,659 +1365,644 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 19</v>
+      <c r="B21" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>61</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3690.5000000000005</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44823</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>10</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>100</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3790.5000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 20</v>
+      <c r="B22" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3660.2500000000005</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44824</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>11</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>110</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3770.2500000000005</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 21</v>
+      <c r="B23" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3630.0000000000005</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44825</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>12</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>120</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3750.0000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 22</v>
+      <c r="B24" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3599.7500000000005</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44826</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>13</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>130</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3729.7500000000005</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 23</v>
+      <c r="B25" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3569.5000000000005</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44827</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>14</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>140</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3709.5000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 24</v>
+      <c r="B26" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3539.2500000000005</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44828</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>15</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>150</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3689.2500000000005</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 25</v>
+      <c r="B27" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3509.0000000000005</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44829</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>16</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>160</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3669.0000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 26</v>
+      <c r="B28" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3478.7500000000005</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44830</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>17</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>170</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3648.7500000000005</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 27</v>
+      <c r="B29" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3448.5000000000005</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44831</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>18</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>180</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3628.5000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 28</v>
+      <c r="B30" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3418.2500000000005</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44832</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>19</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>190</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3608.2500000000005</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 29</v>
+      <c r="B31" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3388.0000000000005</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44833</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>20</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>200</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3588.0000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 30</v>
+      <c r="B32" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3357.7500000000005</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44834</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>21</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>210</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3567.7500000000005</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 31</v>
+      <c r="B33" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3327.5000000000005</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44835</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>22</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>220</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3547.5000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 32</v>
+      <c r="B34" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3297.2500000000005</v>
       </c>
       <c r="F34" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44836</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>23</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>230</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3527.2500000000005</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 33</v>
+      <c r="B35" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="D35" s="5">
@@ -1935,169 +2010,166 @@
         <v>30.250000000000004</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1633.5000000000002</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44837</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>24</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>240</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1873.5000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 34</v>
+      <c r="B36" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" ref="D36:D38" si="11">($D$3/2)</f>
+        <f t="shared" ref="D36:D38" si="10">($D$3/2)</f>
         <v>30.250000000000004</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1618.3750000000002</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44838</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>25</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>250</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1868.3750000000002</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="B37" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 35</v>
+      <c r="B37" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>30.250000000000004</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1603.2500000000002</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44839</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>26</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>260</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1863.2500000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="B38" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Куропаткин 36</v>
+      <c r="B38" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>30.250000000000004</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1588.1250000000002</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44840</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>27</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>270</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1858.1250000000002</v>
       </c>
     </row>

--- a/LR3/table_1_55.xlsx
+++ b/LR3/table_1_55.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02CC4CB-926B-4FA7-A0AC-24AFC89ED006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB680A5-FD6B-467F-8D99-F96306659D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,7 +189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -225,6 +225,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -485,8 +490,8 @@
   </sheetPr>
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -567,7 +572,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="5">
-        <f>(55*1.1)</f>
+        <f>A1*1.1</f>
         <v>60.500000000000007</v>
       </c>
       <c r="E3" s="5">
@@ -575,32 +580,31 @@
         <v>4235.0000000000009</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" ref="F3:F38" ca="1" si="1">DATE(YEAR(TODAY()),9,9)</f>
+        <f t="shared" ref="F3:F35" si="1">DATE(2022,9,9)</f>
         <v>44813</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G38" ca="1" si="2">DATE(YEAR(TODAY()),9,A3)</f>
         <v>44805</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H38" ca="1" si="3">IF(F3&gt;=G3,0,G3-F3)</f>
+        <f t="shared" ref="H3:H38" si="2">IF(F3&gt;=G3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="5">
         <v>10</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3:J38" ca="1" si="4">(H3*I3)</f>
+        <f t="shared" ref="J3:J38" si="3">(H3*I3)</f>
         <v>0</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" ref="K3:K38" ca="1" si="5">(J3+E3)</f>
+        <f t="shared" ref="K3:K38" si="4">(J3+E3)</f>
         <v>4235.0000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <f>(A3+1)</f>
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -611,7 +615,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="5">
-        <f>($D$3)</f>
+        <f>D3</f>
         <v>60.500000000000007</v>
       </c>
       <c r="E4" s="5">
@@ -619,44 +623,43 @@
         <v>4204.7500000000009</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44806</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" ref="I4:I38" si="6">($I$3)</f>
+        <f t="shared" ref="I4:I38" si="5">($I$3)</f>
         <v>10</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>4204.7500000000009</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f t="shared" ref="A5:A38" si="7">(A4+1)</f>
+        <f t="shared" ref="A5:A38" si="6">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C38" si="8">($C$3-0.5*A4)</f>
+        <f t="shared" ref="C5:C38" si="7">($C$3-0.5*A4)</f>
         <v>69</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D34" si="9">($D$3)</f>
+        <f t="shared" ref="D5:D34" si="8">D4</f>
         <v>60.500000000000007</v>
       </c>
       <c r="E5" s="5">
@@ -664,44 +667,43 @@
         <v>4174.5000000000009</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44807</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>4174.5000000000009</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E6" s="5">
@@ -709,44 +711,43 @@
         <v>4144.2500000000009</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44808</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>4144.2500000000009</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E7" s="5">
@@ -754,44 +755,43 @@
         <v>4114.0000000000009</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44809</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>4114.0000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E8" s="5">
@@ -799,44 +799,43 @@
         <v>4083.7500000000005</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44810</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>4083.7500000000005</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>67</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E9" s="5">
@@ -844,44 +843,43 @@
         <v>4053.5000000000005</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44811</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>4053.5000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E10" s="5">
@@ -889,44 +887,43 @@
         <v>4023.2500000000005</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44812</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>4023.2500000000005</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E11" s="5">
@@ -934,44 +931,43 @@
         <v>3993.0000000000005</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44813</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>3993.0000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E12" s="5">
@@ -979,44 +975,43 @@
         <v>3962.7500000000005</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44814</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>3972.7500000000005</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E13" s="5">
@@ -1024,44 +1019,43 @@
         <v>3932.5000000000005</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44815</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>3952.5000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E14" s="5">
@@ -1069,44 +1063,43 @@
         <v>3902.2500000000005</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44816</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>3932.2500000000005</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E15" s="5">
@@ -1114,44 +1107,43 @@
         <v>3872.0000000000005</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44817</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>3912.0000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E16" s="5">
@@ -1159,44 +1151,43 @@
         <v>3841.7500000000005</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44818</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>3891.7500000000005</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E17" s="5">
@@ -1204,44 +1195,43 @@
         <v>3811.5000000000005</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44819</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>3871.5000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E18" s="5">
@@ -1249,44 +1239,43 @@
         <v>3781.2500000000005</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44820</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>3851.2500000000005</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E19" s="5">
@@ -1294,44 +1283,43 @@
         <v>3751.0000000000005</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44821</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>3831.0000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E20" s="5">
@@ -1339,44 +1327,43 @@
         <v>3720.7500000000005</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44822</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="K20" s="5">
-        <f ca="1">(J20+E20)</f>
+        <f>(J20+E20)</f>
         <v>3810.7500000000005</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>61</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E21" s="5">
@@ -1384,44 +1371,43 @@
         <v>3690.5000000000005</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44823</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>3790.5000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E22" s="5">
@@ -1429,44 +1415,43 @@
         <v>3660.2500000000005</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44824</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>3770.2500000000005</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E23" s="5">
@@ -1474,44 +1459,43 @@
         <v>3630.0000000000005</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44825</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>3750.0000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E24" s="5">
@@ -1519,44 +1503,43 @@
         <v>3599.7500000000005</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44826</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>3729.7500000000005</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E25" s="5">
@@ -1564,44 +1547,43 @@
         <v>3569.5000000000005</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44827</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>3709.5000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E26" s="5">
@@ -1609,44 +1591,43 @@
         <v>3539.2500000000005</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44828</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>3689.2500000000005</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E27" s="5">
@@ -1654,44 +1635,43 @@
         <v>3509.0000000000005</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44829</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>3669.0000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E28" s="5">
@@ -1699,44 +1679,43 @@
         <v>3478.7500000000005</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44830</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>3648.7500000000005</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E29" s="5">
@@ -1744,44 +1723,43 @@
         <v>3448.5000000000005</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44831</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>3628.5000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E30" s="5">
@@ -1789,44 +1767,43 @@
         <v>3418.2500000000005</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44832</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>3608.2500000000005</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E31" s="5">
@@ -1834,44 +1811,43 @@
         <v>3388.0000000000005</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44833</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>3588.0000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E32" s="5">
@@ -1879,44 +1855,43 @@
         <v>3357.7500000000005</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44834</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>3567.7500000000005</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E33" s="5">
@@ -1924,44 +1899,43 @@
         <v>3327.5000000000005</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44835</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>3547.5000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E34" s="5">
@@ -1969,40 +1943,39 @@
         <v>3297.2500000000005</v>
       </c>
       <c r="F34" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44836</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>3527.2500000000005</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="D35" s="5">
@@ -2014,44 +1987,43 @@
         <v>1633.5000000000002</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44813</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44837</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>1873.5000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" ref="D36:D38" si="10">($D$3/2)</f>
+        <f t="shared" ref="D36:D38" si="9">($D$3/2)</f>
         <v>30.250000000000004</v>
       </c>
       <c r="E36" s="5">
@@ -2059,44 +2031,43 @@
         <v>1618.3750000000002</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f>DATE(2022,9,9)</f>
         <v>44813</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44838</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>1868.3750000000002</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30.250000000000004</v>
       </c>
       <c r="E37" s="5">
@@ -2104,72 +2075,70 @@
         <v>1603.2500000000002</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="F37:F38" si="10">DATE(2022,9,9)</f>
         <v>44813</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44839</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>1863.2500000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="5">
+        <f t="shared" si="9"/>
+        <v>30.250000000000004</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="0"/>
+        <v>1588.1250000000002</v>
+      </c>
+      <c r="F38" s="7">
         <f t="shared" si="10"/>
-        <v>30.250000000000004</v>
-      </c>
-      <c r="E38" s="5">
-        <f t="shared" si="0"/>
-        <v>1588.1250000000002</v>
-      </c>
-      <c r="F38" s="7">
-        <f t="shared" ca="1" si="1"/>
         <v>44813</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" ca="1" si="2"/>
         <v>44840</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="4"/>
         <v>1858.1250000000002</v>
       </c>
     </row>
@@ -2179,7 +2148,7 @@
         <v>11</v>
       </c>
       <c r="C40" s="5">
-        <f ca="1">SUM(K3:K38)</f>
+        <f>SUM(K3:K38)</f>
         <v>130739.25000000001</v>
       </c>
     </row>
@@ -2197,7 +2166,7 @@
         <v>13</v>
       </c>
       <c r="C42" s="5">
-        <f ca="1">MAX(H3:H38)</f>
+        <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
@@ -2206,11 +2175,12 @@
         <v>14</v>
       </c>
       <c r="C43" s="5">
-        <f ca="1">MAX(K3:K38)</f>
+        <f>MAX(K3:K38)</f>
         <v>4235.0000000000009</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/LR3/table_1_55.xlsx
+++ b/LR3/table_1_55.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB680A5-FD6B-467F-8D99-F96306659D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134E348E-1E5D-4B25-BF45-EE425E65EF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Общая сумма, руб.</t>
-  </si>
-  <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>Куропаткин 1</t>
+  </si>
+  <si>
+    <t>Общая сумма графы "Итого", руб.</t>
   </si>
 </sst>
 </file>
@@ -490,8 +490,8 @@
   </sheetPr>
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6">
         <v>70</v>
@@ -608,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5">
         <f>($C$3-0.5*A3)</f>
@@ -652,7 +652,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" ref="C5:C38" si="7">($C$3-0.5*A4)</f>
@@ -696,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="7"/>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="7"/>
@@ -784,7 +784,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="7"/>
@@ -828,7 +828,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="7"/>
@@ -872,7 +872,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="7"/>
@@ -916,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="7"/>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="7"/>
@@ -1004,7 +1004,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="7"/>
@@ -1048,7 +1048,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="7"/>
@@ -1092,7 +1092,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="7"/>
@@ -1136,7 +1136,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="7"/>
@@ -1180,7 +1180,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="7"/>
@@ -1224,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="7"/>
@@ -1268,7 +1268,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="7"/>
@@ -1312,7 +1312,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="7"/>
@@ -1356,7 +1356,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="7"/>
@@ -1400,7 +1400,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="7"/>
@@ -1444,7 +1444,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="7"/>
@@ -1488,7 +1488,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="7"/>
@@ -1532,7 +1532,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="7"/>
@@ -1576,7 +1576,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="7"/>
@@ -1620,7 +1620,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="7"/>
@@ -1664,7 +1664,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="7"/>
@@ -1708,7 +1708,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="7"/>
@@ -1752,7 +1752,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="7"/>
@@ -1796,7 +1796,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="7"/>
@@ -1840,7 +1840,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="7"/>
@@ -1884,7 +1884,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="7"/>
@@ -1928,7 +1928,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" s="5">
         <f t="shared" si="7"/>
@@ -1972,7 +1972,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="7"/>
@@ -2016,7 +2016,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="7"/>
@@ -2060,7 +2060,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="7"/>
@@ -2104,7 +2104,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="5">
         <f t="shared" si="7"/>
@@ -2145,16 +2145,16 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="5" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C40" s="5">
-        <f>SUM(K3:K38)</f>
-        <v>130739.25000000001</v>
+        <f>FLOOR(SUM(K3:K38), 1)</f>
+        <v>130739</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" s="5">
         <f>AVERAGE(C3:C38)</f>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" s="5">
         <f>MAX(H3:H38)</f>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43" s="5">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_55.xlsx
+++ b/LR3/table_1_55.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134E348E-1E5D-4B25-BF45-EE425E65EF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DFBCDA-AA95-4DED-B388-1CB7A7EF3D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30645" yWindow="4245" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
     <t>Куропаткин 1</t>
   </si>
   <si>
-    <t>Общая сумма графы "Итого", руб.</t>
+    <t>Общая сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -490,8 +490,8 @@
   </sheetPr>
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LR3/table_1_55.xlsx
+++ b/LR3/table_1_55.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DFBCDA-AA95-4DED-B388-1CB7A7EF3D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E23AAC8-22B1-42CC-A2F6-6880976C1672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30645" yWindow="4245" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
   </sheetPr>
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>

--- a/LR3/table_1_55.xlsx
+++ b/LR3/table_1_55.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E23AAC8-22B1-42CC-A2F6-6880976C1672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3721F1C2-745E-4BA3-A5B0-1EFDA7E35418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,9 +35,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Адельвахаб</t>
   </si>
   <si>
@@ -183,6 +177,12 @@
   </si>
   <si>
     <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросёъмщика</t>
   </si>
 </sst>
 </file>
@@ -490,8 +490,8 @@
   </sheetPr>
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -517,34 +517,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6">
         <v>70</v>
@@ -608,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5">
         <f>($C$3-0.5*A3)</f>
@@ -652,7 +652,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" ref="C5:C38" si="7">($C$3-0.5*A4)</f>
@@ -696,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="7"/>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="7"/>
@@ -784,7 +784,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="7"/>
@@ -828,7 +828,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="7"/>
@@ -872,7 +872,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="7"/>
@@ -916,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="7"/>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="7"/>
@@ -1004,7 +1004,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="7"/>
@@ -1048,7 +1048,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="7"/>
@@ -1092,7 +1092,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="7"/>
@@ -1136,7 +1136,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="7"/>
@@ -1180,7 +1180,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="7"/>
@@ -1224,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="7"/>
@@ -1268,7 +1268,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="7"/>
@@ -1312,7 +1312,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="7"/>
@@ -1356,7 +1356,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="7"/>
@@ -1400,7 +1400,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="7"/>
@@ -1444,7 +1444,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="7"/>
@@ -1488,7 +1488,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="7"/>
@@ -1532,7 +1532,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="7"/>
@@ -1576,7 +1576,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="7"/>
@@ -1620,7 +1620,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="7"/>
@@ -1664,7 +1664,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="7"/>
@@ -1708,7 +1708,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="7"/>
@@ -1752,7 +1752,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="7"/>
@@ -1796,7 +1796,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="7"/>
@@ -1840,7 +1840,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="7"/>
@@ -1884,7 +1884,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="7"/>
@@ -1928,7 +1928,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C34" s="5">
         <f t="shared" si="7"/>
@@ -1972,7 +1972,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="7"/>
@@ -2016,7 +2016,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="7"/>
@@ -2060,7 +2060,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="7"/>
@@ -2104,7 +2104,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38" s="5">
         <f t="shared" si="7"/>
@@ -2145,7 +2145,7 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C40" s="5">
         <f>FLOOR(SUM(K3:K38), 1)</f>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="5">
         <f>AVERAGE(C3:C38)</f>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" s="5">
         <f>MAX(H3:H38)</f>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C43" s="5">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_55.xlsx
+++ b/LR3/table_1_55.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3721F1C2-745E-4BA3-A5B0-1EFDA7E35418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152AC968-EEBC-4E11-8FE0-9550BDA294E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,7 +182,7 @@
     <t>Максимальная сумма, руб.</t>
   </si>
   <si>
-    <t>Фамилия квартиросёъмщика</t>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LR3/table_1_55.xlsx
+++ b/LR3/table_1_55.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152AC968-EEBC-4E11-8FE0-9550BDA294E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CC34A2-F7F1-43E2-833F-425560380058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -200,17 +200,23 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF282C34"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -229,6 +235,8 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -490,8 +498,8 @@
   </sheetPr>
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -576,29 +584,28 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E38" si="0">(C3*D3)</f>
+        <f>C3*D3</f>
         <v>4235.0000000000009</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" ref="F3:F35" si="1">DATE(2022,9,9)</f>
         <v>44813</v>
       </c>
       <c r="G3" s="7">
         <v>44805</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H38" si="2">IF(F3&gt;=G3,0,G3-F3)</f>
+        <f t="shared" ref="H3:H38" si="0">IF(F3&gt;=G3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="5">
         <v>10</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3:J38" si="3">(H3*I3)</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" ref="K3:K38" si="4">(J3+E3)</f>
+        <f>J3+E3</f>
         <v>4235.0000000000009</v>
       </c>
     </row>
@@ -611,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="5">
-        <f>($C$3-0.5*A3)</f>
+        <f>C$3-0.5*A3</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="5">
@@ -619,1526 +626,1561 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>4204.7500000000009</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" si="1"/>
+        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="7">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" ref="I4:I38" si="5">($I$3)</f>
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="4"/>
+        <f>J4+E4</f>
         <v>4204.7500000000009</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f t="shared" ref="A5:A38" si="6">A4+1</f>
+        <f t="shared" ref="A5:A38" si="3">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C38" si="7">($C$3-0.5*A4)</f>
+        <f t="shared" ref="C5:C38" si="4">C$3-0.5*A4</f>
         <v>69</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D34" si="8">D4</f>
+        <f t="shared" ref="D5:D34" si="5">D4</f>
         <v>60.500000000000007</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4174.5000000000009</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F5:F38" si="6">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="7">
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I5:I38" si="8">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K5:K38" si="9">J5+E5</f>
         <v>4174.5000000000009</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4144.2500000000009</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="7">
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4144.2500000000009</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4114.0000000000009</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="7">
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4114.0000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4083.7500000000005</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="7">
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4083.7500000000005</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4053.5000000000005</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="7">
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4053.5000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4023.2500000000005</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="7">
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4023.2500000000005</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3993.0000000000005</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="7">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3993.0000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3962.7500000000005</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="7">
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3972.7500000000005</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3932.5000000000005</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="7">
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3952.5000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3902.2500000000005</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="7">
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3932.2500000000005</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3872.0000000000005</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="7">
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3912.0000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3841.7500000000005</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="7">
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3891.7500000000005</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3811.5000000000005</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="7">
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3871.5000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3781.2500000000005</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="7">
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3851.2500000000005</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3751.0000000000005</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="7">
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3831.0000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3720.7500000000005</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="7">
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="5">
-        <f>(J20+E20)</f>
+        <f t="shared" si="9"/>
         <v>3810.7500000000005</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3690.5000000000005</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="7">
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3790.5000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3660.2500000000005</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="7">
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3770.2500000000005</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3630.0000000000005</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="7">
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3750.0000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3599.7500000000005</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="7">
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3729.7500000000005</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3569.5000000000005</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="7">
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3709.5000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3539.2500000000005</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="7">
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3689.2500000000005</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3509.0000000000005</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="7">
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3669.0000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3478.7500000000005</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="7">
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3648.7500000000005</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3448.5000000000005</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="7">
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3628.5000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3418.2500000000005</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="7">
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3608.2500000000005</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3388.0000000000005</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="7">
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3588.0000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3357.7500000000005</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="7">
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3567.7500000000005</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3327.5000000000005</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="7">
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3547.5000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3297.2500000000005</v>
       </c>
       <c r="F34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="7">
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3527.2500000000005</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="5">
-        <f>($D$3/2)</f>
+        <f>$D$3/2</f>
         <v>30.250000000000004</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1633.5000000000002</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="7">
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1873.5000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" ref="D36:D38" si="9">($D$3/2)</f>
+        <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
         <v>30.250000000000004</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1618.3750000000002</v>
       </c>
       <c r="F36" s="7">
-        <f>DATE(2022,9,9)</f>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="7">
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1868.3750000000002</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.250000000000004</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1603.2500000000002</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" ref="F37:F38" si="10">DATE(2022,9,9)</f>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="7">
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1863.2500000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.250000000000004</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1588.1250000000002</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="7">
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1858.1250000000002</v>
       </c>
     </row>

--- a/LR3/table_1_55.xlsx
+++ b/LR3/table_1_55.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CC34A2-F7F1-43E2-833F-425560380058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE236AB-96A4-44D2-8553-5A07E8B4912D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -260,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -278,6 +278,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -499,7 +500,7 @@
   <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -594,7 +595,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H38" si="0">IF(F3&gt;=G3,0,G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -617,8 +618,8 @@
       <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5">
-        <f>C$3-0.5*A3</f>
+      <c r="C4" s="9">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="5">
@@ -626,7 +627,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>4204.7500000000009</v>
       </c>
       <c r="F4" s="7">
@@ -638,7 +639,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="5">
@@ -662,8 +663,8 @@
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5">
-        <f t="shared" ref="C5:C38" si="4">C$3-0.5*A4</f>
+      <c r="C5" s="9">
+        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="5">
@@ -671,7 +672,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4174.5000000000009</v>
       </c>
       <c r="F5" s="7">
@@ -683,7 +684,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="5">
@@ -707,7 +708,7 @@
       <c r="B6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="9">
         <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
@@ -716,7 +717,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4144.2500000000009</v>
       </c>
       <c r="F6" s="7">
@@ -728,7 +729,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="5">
@@ -752,7 +753,7 @@
       <c r="B7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="9">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
@@ -761,7 +762,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4114.0000000000009</v>
       </c>
       <c r="F7" s="7">
@@ -773,7 +774,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="5">
@@ -797,7 +798,7 @@
       <c r="B8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="9">
         <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
@@ -806,7 +807,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4083.7500000000005</v>
       </c>
       <c r="F8" s="7">
@@ -818,7 +819,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="5">
@@ -842,7 +843,7 @@
       <c r="B9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="9">
         <f t="shared" si="4"/>
         <v>67</v>
       </c>
@@ -851,7 +852,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4053.5000000000005</v>
       </c>
       <c r="F9" s="7">
@@ -863,7 +864,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="5">
@@ -887,7 +888,7 @@
       <c r="B10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="9">
         <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
@@ -896,7 +897,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4023.2500000000005</v>
       </c>
       <c r="F10" s="7">
@@ -908,7 +909,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="5">
@@ -932,7 +933,7 @@
       <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="9">
         <f t="shared" si="4"/>
         <v>66</v>
       </c>
@@ -941,7 +942,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3993.0000000000005</v>
       </c>
       <c r="F11" s="7">
@@ -953,7 +954,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="5">
@@ -977,7 +978,7 @@
       <c r="B12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="9">
         <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
@@ -986,7 +987,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3962.7500000000005</v>
       </c>
       <c r="F12" s="7">
@@ -998,7 +999,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="5">
@@ -1022,7 +1023,7 @@
       <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="9">
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3932.5000000000005</v>
       </c>
       <c r="F13" s="7">
@@ -1043,7 +1044,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="5">
@@ -1067,7 +1068,7 @@
       <c r="B14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="9">
         <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3902.2500000000005</v>
       </c>
       <c r="F14" s="7">
@@ -1088,7 +1089,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="5">
@@ -1112,7 +1113,7 @@
       <c r="B15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="9">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
@@ -1121,7 +1122,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3872.0000000000005</v>
       </c>
       <c r="F15" s="7">
@@ -1133,7 +1134,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="5">
@@ -1157,7 +1158,7 @@
       <c r="B16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="9">
         <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3841.7500000000005</v>
       </c>
       <c r="F16" s="7">
@@ -1178,7 +1179,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="5">
@@ -1202,7 +1203,7 @@
       <c r="B17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="9">
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
@@ -1211,7 +1212,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3811.5000000000005</v>
       </c>
       <c r="F17" s="7">
@@ -1223,7 +1224,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="5">
@@ -1247,7 +1248,7 @@
       <c r="B18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="9">
         <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3781.2500000000005</v>
       </c>
       <c r="F18" s="7">
@@ -1268,7 +1269,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="5">
@@ -1292,7 +1293,7 @@
       <c r="B19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="9">
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3751.0000000000005</v>
       </c>
       <c r="F19" s="7">
@@ -1313,7 +1314,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="5">
@@ -1337,7 +1338,7 @@
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="9">
         <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3720.7500000000005</v>
       </c>
       <c r="F20" s="7">
@@ -1358,7 +1359,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="5">
@@ -1382,7 +1383,7 @@
       <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="9">
         <f t="shared" si="4"/>
         <v>61</v>
       </c>
@@ -1391,7 +1392,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3690.5000000000005</v>
       </c>
       <c r="F21" s="7">
@@ -1403,7 +1404,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="5">
@@ -1427,7 +1428,7 @@
       <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="9">
         <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
@@ -1436,7 +1437,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3660.2500000000005</v>
       </c>
       <c r="F22" s="7">
@@ -1448,7 +1449,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="5">
@@ -1472,7 +1473,7 @@
       <c r="B23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="9">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
@@ -1481,7 +1482,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3630.0000000000005</v>
       </c>
       <c r="F23" s="7">
@@ -1493,7 +1494,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="5">
@@ -1517,7 +1518,7 @@
       <c r="B24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="9">
         <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
@@ -1526,7 +1527,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3599.7500000000005</v>
       </c>
       <c r="F24" s="7">
@@ -1538,7 +1539,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="5">
@@ -1562,7 +1563,7 @@
       <c r="B25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="9">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3569.5000000000005</v>
       </c>
       <c r="F25" s="7">
@@ -1583,7 +1584,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="5">
@@ -1607,7 +1608,7 @@
       <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="9">
         <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
@@ -1616,7 +1617,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3539.2500000000005</v>
       </c>
       <c r="F26" s="7">
@@ -1628,7 +1629,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="5">
@@ -1652,7 +1653,7 @@
       <c r="B27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="9">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
@@ -1661,7 +1662,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3509.0000000000005</v>
       </c>
       <c r="F27" s="7">
@@ -1673,7 +1674,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="5">
@@ -1697,7 +1698,7 @@
       <c r="B28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="9">
         <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
@@ -1706,7 +1707,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3478.7500000000005</v>
       </c>
       <c r="F28" s="7">
@@ -1718,7 +1719,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="5">
@@ -1742,7 +1743,7 @@
       <c r="B29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="9">
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3448.5000000000005</v>
       </c>
       <c r="F29" s="7">
@@ -1763,7 +1764,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="5">
@@ -1787,7 +1788,7 @@
       <c r="B30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="9">
         <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
@@ -1796,7 +1797,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3418.2500000000005</v>
       </c>
       <c r="F30" s="7">
@@ -1808,7 +1809,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="5">
@@ -1832,7 +1833,7 @@
       <c r="B31" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="9">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3388.0000000000005</v>
       </c>
       <c r="F31" s="7">
@@ -1853,7 +1854,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="5">
@@ -1877,7 +1878,7 @@
       <c r="B32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="9">
         <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3357.7500000000005</v>
       </c>
       <c r="F32" s="7">
@@ -1898,7 +1899,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="5">
@@ -1922,7 +1923,7 @@
       <c r="B33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="9">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
@@ -1931,7 +1932,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3327.5000000000005</v>
       </c>
       <c r="F33" s="7">
@@ -1943,7 +1944,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="5">
@@ -1967,7 +1968,7 @@
       <c r="B34" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="9">
         <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
@@ -1976,7 +1977,7 @@
         <v>60.500000000000007</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3297.2500000000005</v>
       </c>
       <c r="F34" s="7">
@@ -1988,7 +1989,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="5">
@@ -2012,16 +2013,16 @@
       <c r="B35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="9">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="5">
-        <f>$D$3/2</f>
+        <f>D3/2</f>
         <v>30.250000000000004</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1633.5000000000002</v>
       </c>
       <c r="F35" s="7">
@@ -2033,7 +2034,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="5">
@@ -2057,16 +2058,16 @@
       <c r="B36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="9">
         <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
+        <f t="shared" ref="D36:D38" si="10">D4/2</f>
         <v>30.250000000000004</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1618.3750000000002</v>
       </c>
       <c r="F36" s="7">
@@ -2078,7 +2079,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="5">
@@ -2102,7 +2103,7 @@
       <c r="B37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="9">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
@@ -2111,7 +2112,7 @@
         <v>30.250000000000004</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1603.2500000000002</v>
       </c>
       <c r="F37" s="7">
@@ -2123,7 +2124,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="5">
@@ -2147,7 +2148,7 @@
       <c r="B38" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="9">
         <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
@@ -2156,7 +2157,7 @@
         <v>30.250000000000004</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1588.1250000000002</v>
       </c>
       <c r="F38" s="7">
@@ -2168,7 +2169,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="5">

--- a/LR3/table_1_55.xlsx
+++ b/LR3/table_1_55.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE236AB-96A4-44D2-8553-5A07E8B4912D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C665B789-2FB3-44A5-8586-E3916947FB05}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -499,8 +489,8 @@
   </sheetPr>
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2063,7 +2053,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+        <f>D35</f>
         <v>30.250000000000004</v>
       </c>
       <c r="E36" s="5">
@@ -2108,7 +2098,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D37:D38" si="10">D36</f>
         <v>30.250000000000004</v>
       </c>
       <c r="E37" s="5">

--- a/LR3/table_1_55.xlsx
+++ b/LR3/table_1_55.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C665B789-2FB3-44A5-8586-E3916947FB05}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BE16D7-0A16-4AF6-8E20-FAC42AD260B1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,8 +489,8 @@
   </sheetPr>
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="5">
-        <f>J3+E3</f>
+        <f>(J3+E3)</f>
         <v>4235.0000000000009</v>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
         <v>150</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="9"/>
+        <f>J26+E26</f>
         <v>3689.2500000000005</v>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="5">
-        <f>D35</f>
+        <f>D3/2</f>
         <v>30.250000000000004</v>
       </c>
       <c r="E36" s="5">
@@ -2098,7 +2098,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" ref="D37:D38" si="10">D36</f>
+        <f>D3/2</f>
         <v>30.250000000000004</v>
       </c>
       <c r="E37" s="5">
@@ -2143,7 +2143,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>30.250000000000004</v>
       </c>
       <c r="E38" s="5">

--- a/LR3/table_1_55.xlsx
+++ b/LR3/table_1_55.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BE16D7-0A16-4AF6-8E20-FAC42AD260B1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B61339-8D3C-4345-9149-2240ADADDEF3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,8 +489,8 @@
   </sheetPr>
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="5">
-        <f>(J3+E3)</f>
+        <f>E3+J3</f>
         <v>4235.0000000000009</v>
       </c>
     </row>
@@ -641,24 +641,24 @@
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <f>J4+E4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>4204.7500000000009</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f t="shared" ref="A5:A38" si="3">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="9">
-        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D34" si="5">D4</f>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>60.500000000000007</v>
       </c>
       <c r="E5" s="5">
@@ -666,11 +666,11 @@
         <v>4174.5000000000009</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:F38" si="6">F4</f>
+        <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" ref="G5:G38" si="7">G4+1</f>
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="5">
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" ref="I5:I38" si="8">$I$3</f>
+        <f t="shared" ref="I5:I38" si="9">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="5">
@@ -686,24 +686,24 @@
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" ref="K5:K38" si="9">J5+E5</f>
+        <f t="shared" si="3"/>
         <v>4174.5000000000009</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E6" s="5">
@@ -711,11 +711,11 @@
         <v>4144.2500000000009</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="5">
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="5">
@@ -731,24 +731,24 @@
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4144.2500000000009</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E7" s="5">
@@ -756,11 +756,11 @@
         <v>4114.0000000000009</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="5">
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="5">
@@ -776,24 +776,24 @@
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4114.0000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E8" s="5">
@@ -801,11 +801,11 @@
         <v>4083.7500000000005</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="5">
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="5">
@@ -821,24 +821,24 @@
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4083.7500000000005</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E9" s="5">
@@ -846,11 +846,11 @@
         <v>4053.5000000000005</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="5">
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="5">
@@ -866,24 +866,24 @@
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4053.5000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E10" s="5">
@@ -891,11 +891,11 @@
         <v>4023.2500000000005</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="5">
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="5">
@@ -911,24 +911,24 @@
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4023.2500000000005</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E11" s="5">
@@ -936,11 +936,11 @@
         <v>3993.0000000000005</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="5">
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="5">
@@ -956,24 +956,24 @@
         <v>0</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3993.0000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E12" s="5">
@@ -981,11 +981,11 @@
         <v>3962.7500000000005</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="5">
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="5">
@@ -1001,24 +1001,24 @@
         <v>10</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3972.7500000000005</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E13" s="5">
@@ -1026,11 +1026,11 @@
         <v>3932.5000000000005</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="5">
@@ -1038,7 +1038,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="5">
@@ -1046,24 +1046,24 @@
         <v>20</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3952.5000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E14" s="5">
@@ -1071,11 +1071,11 @@
         <v>3902.2500000000005</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="5">
@@ -1083,7 +1083,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="5">
@@ -1091,24 +1091,24 @@
         <v>30</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3932.2500000000005</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E15" s="5">
@@ -1116,11 +1116,11 @@
         <v>3872.0000000000005</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="5">
@@ -1128,7 +1128,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="5">
@@ -1136,24 +1136,24 @@
         <v>40</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3912.0000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E16" s="5">
@@ -1161,11 +1161,11 @@
         <v>3841.7500000000005</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="5">
@@ -1173,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="5">
@@ -1181,24 +1181,24 @@
         <v>50</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3891.7500000000005</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E17" s="5">
@@ -1206,11 +1206,11 @@
         <v>3811.5000000000005</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="5">
@@ -1218,7 +1218,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="5">
@@ -1226,24 +1226,24 @@
         <v>60</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3871.5000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E18" s="5">
@@ -1251,11 +1251,11 @@
         <v>3781.2500000000005</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="5">
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="5">
@@ -1271,24 +1271,24 @@
         <v>70</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3851.2500000000005</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E19" s="5">
@@ -1296,11 +1296,11 @@
         <v>3751.0000000000005</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="5">
@@ -1308,7 +1308,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="5">
@@ -1316,24 +1316,24 @@
         <v>80</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3831.0000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E20" s="5">
@@ -1341,11 +1341,11 @@
         <v>3720.7500000000005</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="5">
@@ -1353,7 +1353,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="5">
@@ -1361,24 +1361,24 @@
         <v>90</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3810.7500000000005</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E21" s="5">
@@ -1386,11 +1386,11 @@
         <v>3690.5000000000005</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="5">
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="5">
@@ -1406,24 +1406,24 @@
         <v>100</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3790.5000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E22" s="5">
@@ -1431,11 +1431,11 @@
         <v>3660.2500000000005</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="5">
@@ -1443,7 +1443,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="5">
@@ -1451,24 +1451,24 @@
         <v>110</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3770.2500000000005</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E23" s="5">
@@ -1476,11 +1476,11 @@
         <v>3630.0000000000005</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="5">
@@ -1488,7 +1488,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="5">
@@ -1496,24 +1496,24 @@
         <v>120</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3750.0000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E24" s="5">
@@ -1521,11 +1521,11 @@
         <v>3599.7500000000005</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="5">
@@ -1533,7 +1533,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="5">
@@ -1541,24 +1541,24 @@
         <v>130</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3729.7500000000005</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E25" s="5">
@@ -1566,11 +1566,11 @@
         <v>3569.5000000000005</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="5">
@@ -1578,7 +1578,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="5">
@@ -1586,24 +1586,24 @@
         <v>140</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3709.5000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E26" s="5">
@@ -1611,11 +1611,11 @@
         <v>3539.2500000000005</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="5">
@@ -1623,7 +1623,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="5">
@@ -1631,24 +1631,24 @@
         <v>150</v>
       </c>
       <c r="K26" s="5">
-        <f>J26+E26</f>
+        <f t="shared" si="3"/>
         <v>3689.2500000000005</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E27" s="5">
@@ -1656,11 +1656,11 @@
         <v>3509.0000000000005</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="5">
@@ -1668,7 +1668,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="5">
@@ -1676,24 +1676,24 @@
         <v>160</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3669.0000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E28" s="5">
@@ -1701,11 +1701,11 @@
         <v>3478.7500000000005</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="5">
@@ -1713,7 +1713,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="5">
@@ -1721,24 +1721,24 @@
         <v>170</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3648.7500000000005</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E29" s="5">
@@ -1746,11 +1746,11 @@
         <v>3448.5000000000005</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="5">
@@ -1758,7 +1758,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="5">
@@ -1766,24 +1766,24 @@
         <v>180</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3628.5000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E30" s="5">
@@ -1791,11 +1791,11 @@
         <v>3418.2500000000005</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="5">
@@ -1803,7 +1803,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="5">
@@ -1811,24 +1811,24 @@
         <v>190</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3608.2500000000005</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E31" s="5">
@@ -1836,11 +1836,11 @@
         <v>3388.0000000000005</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="5">
@@ -1848,7 +1848,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="5">
@@ -1856,24 +1856,24 @@
         <v>200</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3588.0000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E32" s="5">
@@ -1881,11 +1881,11 @@
         <v>3357.7500000000005</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="5">
@@ -1893,7 +1893,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="5">
@@ -1901,24 +1901,24 @@
         <v>210</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3567.7500000000005</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E33" s="5">
@@ -1926,11 +1926,11 @@
         <v>3327.5000000000005</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="5">
@@ -1938,7 +1938,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="5">
@@ -1946,24 +1946,24 @@
         <v>220</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3547.5000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.500000000000007</v>
       </c>
       <c r="E34" s="5">
@@ -1971,11 +1971,11 @@
         <v>3297.2500000000005</v>
       </c>
       <c r="F34" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="5">
@@ -1983,7 +1983,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="5">
@@ -1991,20 +1991,20 @@
         <v>230</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3527.2500000000005</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="5">
@@ -2016,11 +2016,11 @@
         <v>1633.5000000000002</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="5">
@@ -2028,7 +2028,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="5">
@@ -2036,20 +2036,20 @@
         <v>240</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1873.5000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="5">
@@ -2061,11 +2061,11 @@
         <v>1618.3750000000002</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="5">
@@ -2073,7 +2073,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="5">
@@ -2081,20 +2081,20 @@
         <v>250</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1868.3750000000002</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="5">
@@ -2106,11 +2106,11 @@
         <v>1603.2500000000002</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="5">
@@ -2118,7 +2118,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="5">
@@ -2126,20 +2126,20 @@
         <v>260</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1863.2500000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="5">
@@ -2151,11 +2151,11 @@
         <v>1588.1250000000002</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="5">
@@ -2163,7 +2163,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="5">
@@ -2171,7 +2171,7 @@
         <v>270</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1858.1250000000002</v>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
         <v>48</v>
       </c>
       <c r="C40" s="5">
-        <f>FLOOR(SUM(K3:K38), 1)</f>
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>130739</v>
       </c>
     </row>
